--- a/public/Format Audit.xlsx
+++ b/public/Format Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GITHUB31\LARAVEL\laravel-audit\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\LARAVEL-ECOM\laravel-audit\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F6F59-A812-4A4F-9378-AB299149B789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5BC19F-1FBB-431A-A4D6-0E7A555FE1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E41A4EC-A837-4EB3-BB6C-7D82849C3A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E41A4EC-A837-4EB3-BB6C-7D82849C3A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -94,9 +94,6 @@
   <si>
     <t>- Keterangan 1
 - Keterangan 2</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>-Dampak 1
@@ -510,19 +507,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5BEAC8-C4CD-4251-A59F-7B6C7048B479}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>9</v>
@@ -605,16 +605,16 @@
         <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -629,9 +629,6 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
